--- a/Imagens/Imagens OK/IMG (14)_8/contorno_8saida.xlsx
+++ b/Imagens/Imagens OK/IMG (14)_8/contorno_8saida.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\OneDrive\Área de Trabalho\Pid-master\PID\ImagensTratadas\IMG (14)_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\OneDrive\Área de Trabalho\Pid-master\PID\Imagens\Imagens OK\IMG (14)_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B44D89-7206-4640-9A28-3759C890FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503ACD1-ED1E-45A6-A1BB-02CBEE9047F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="276" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -423,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,6 +492,10 @@
       <c r="G2">
         <v>0.27120528315357362</v>
       </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" si="0">IF(I2="Folhado", 1, IF(I2="Araçá", 2, IF(I2="Quaresmeira", 3, IF(I2="Pessegueiro", 4, IF(I2="Coleus", 5, IF(I2="Uva do mato", 6, "ERRO"))))))</f>
+        <v>1</v>
+      </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
@@ -505,6 +522,10 @@
       <c r="G3">
         <v>0.28552335369843479</v>
       </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
@@ -531,6 +552,10 @@
       <c r="G4">
         <v>0.27471269691952999</v>
       </c>
+      <c r="H4">
+        <f>IF(I4="Folhado", 1, IF(I4="Araçá", 2, IF(I4="Quaresmeira", 3, IF(I4="Pessegueiro", 4, IF(I4="Coleus", 5, IF(I4="Uva do mato", 6, "ERRO"))))))</f>
+        <v>6</v>
+      </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
@@ -557,6 +582,10 @@
       <c r="G5">
         <v>0.34311654099969091</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H9" si="1">IF(I5="Folhado", 1, IF(I5="Araçá", 2, IF(I5="Quaresmeira", 3, IF(I5="Pessegueiro", 4, IF(I5="Coleus", 5, IF(I5="Uva do mato", 6, "ERRO"))))))</f>
+        <v>2</v>
+      </c>
       <c r="I5" t="s">
         <v>9</v>
       </c>
@@ -583,6 +612,10 @@
       <c r="G6">
         <v>0.21988076981004631</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
@@ -609,6 +642,10 @@
       <c r="G7">
         <v>0.34303892343175002</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
@@ -635,6 +672,10 @@
       <c r="G8">
         <v>0.25268116867452778</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
@@ -660,6 +701,10 @@
       </c>
       <c r="G9">
         <v>0.27351947141880112</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
